--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
@@ -258,7 +258,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) OEM - 2. Participant Forms</t>
+    <t>(Dec 2021) OEM - 2. Participant Form</t>
   </si>
   <si>
     <t>ng_oncho_oem_2_participant_202112</t>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -272,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -309,6 +309,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -318,91 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,46 +447,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -481,31 +481,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,127 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +714,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -725,15 +734,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,16 +763,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,164 +798,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,12 +1320,12 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2104,7 +2104,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <t>p_AdditionalNotes</t>
   </si>
   <si>
-    <t>Notes additionnelles</t>
+    <t>Additional Notes</t>
   </si>
   <si>
     <t>start</t>
@@ -258,10 +258,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) OEM - 2. Participant Form</t>
-  </si>
-  <si>
-    <t>ng_oncho_oem_2_participant_202112</t>
+    <t>(Dec 2021) OEM - 2. Participant Form V2</t>
+  </si>
+  <si>
+    <t>ng_oncho_oem_2_participant_202112_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -272,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -310,9 +310,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,9 +325,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,20 +339,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -361,6 +347,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -369,6 +416,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -377,22 +445,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -402,59 +454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,187 +475,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,26 +723,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,16 +754,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,171 +782,180 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,12 +1320,12 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2104,7 +2104,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_2_participant_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -66,10 +66,10 @@
     <t>p_recorder_id</t>
   </si>
   <si>
-    <t>Entrer le numéro de l'enregistreur</t>
-  </si>
-  <si>
-    <t>Code à 2 chiffres qui vous est attribué</t>
+    <t>Enter the recorder number</t>
+  </si>
+  <si>
+    <t>2-digit code assigned to you</t>
   </si>
   <si>
     <t>. &gt; 9 and .&lt; 100</t>
@@ -120,37 +120,40 @@
     <t>Has the participant given consent?</t>
   </si>
   <si>
-    <t>select_one ID_method</t>
-  </si>
-  <si>
-    <t>p_ID_method</t>
-  </si>
-  <si>
-    <t>How will the individual's unique ID be generated?</t>
+    <t>p_serial_number1</t>
+  </si>
+  <si>
+    <t>Please, enter the participant serial number</t>
+  </si>
+  <si>
+    <t>regex(., '^[0-9]{3}$')</t>
+  </si>
+  <si>
+    <t>Must be a three-digit number. example: 001</t>
   </si>
   <si>
     <t>${p_consent} = 'Yes'</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>p_Barcode_ID</t>
-  </si>
-  <si>
-    <t>Please scan the QR code / barcode</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Yes' and ${p_ID_method} = 'Scanner'</t>
-  </si>
-  <si>
-    <t>p_Generate_ID</t>
-  </si>
-  <si>
-    <t>Please enter the code manually</t>
-  </si>
-  <si>
-    <t>${p_consent} = 'Yes' and ${p_ID_method} = 'Manual'</t>
+    <t>p_serial_number2</t>
+  </si>
+  <si>
+    <t>Please, repeat the participant serial number</t>
+  </si>
+  <si>
+    <t>. = ${p_serial_number1}</t>
+  </si>
+  <si>
+    <t>Le code répété doit être le même</t>
+  </si>
+  <si>
+    <t>p_code_id</t>
+  </si>
+  <si>
+    <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) adminstered</t>
+  </si>
+  <si>
+    <t>concat(${p_recorder_id}, '-', ${p_cluster_id}, '-', ${p_serial_number1})</t>
   </si>
   <si>
     <t>select_one sex</t>
@@ -258,10 +261,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) OEM - 2. Participant Form V2</t>
-  </si>
-  <si>
-    <t>ng_oncho_oem_2_participant_202112_v2</t>
+    <t>(Dec 2021) OEM - 2. Participant Form V2.2</t>
+  </si>
+  <si>
+    <t>ng_oncho_oem_2_participant_202112_v2_2</t>
   </si>
   <si>
     <t>French</t>
@@ -272,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -309,6 +312,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -324,13 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -339,6 +343,111 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -347,114 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,181 +478,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,15 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -734,6 +728,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,26 +780,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -811,151 +803,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,12 +1323,12 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1335,8 +1338,8 @@
     <col min="3" max="3" width="47.5037037037037" customWidth="1"/>
     <col min="4" max="4" width="47.3703703703704" customWidth="1"/>
     <col min="5" max="5" width="12.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
-    <col min="7" max="7" width="29.5037037037037" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="37.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="20.3703703703704" customWidth="1"/>
     <col min="9" max="9" width="12.6296296296296" customWidth="1"/>
     <col min="10" max="10" width="9.75555555555556" customWidth="1"/>
@@ -1529,24 +1532,30 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
       <c r="H8" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="42.75" spans="1:10">
+    <row r="9" customFormat="1" spans="1:10">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -1554,46 +1563,58 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
       <c r="H9" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="42.75" spans="1:10">
+    <row r="10" customFormat="1" spans="1:14">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" s="13" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
@@ -1608,20 +1629,20 @@
         <v>14</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12" s="17"/>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>20</v>
@@ -1632,13 +1653,13 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>20</v>
@@ -1646,46 +1667,46 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J17" s="15"/>
     </row>
@@ -1726,93 +1747,93 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="12"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="12"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="12"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="12"/>
@@ -2104,8 +2125,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2116,24 +2137,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
